--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,243 +534,243 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.9393185882211</v>
+        <v>23.98404066666667</v>
       </c>
       <c r="H2">
-        <v>23.9393185882211</v>
+        <v>71.952122</v>
       </c>
       <c r="I2">
-        <v>0.1546491905678969</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="J2">
-        <v>0.1546491905678969</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>312.4761671974991</v>
+        <v>318.4971792935509</v>
       </c>
       <c r="R2">
-        <v>312.4761671974991</v>
+        <v>2866.474613641958</v>
       </c>
       <c r="S2">
-        <v>0.1546491905678969</v>
+        <v>0.151171233934415</v>
       </c>
       <c r="T2">
-        <v>0.1546491905678969</v>
+        <v>0.151171233934415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.5081341828746</v>
+        <v>23.98404066666667</v>
       </c>
       <c r="H3">
-        <v>50.5081341828746</v>
+        <v>71.952122</v>
       </c>
       <c r="I3">
-        <v>0.32628506278034</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="J3">
-        <v>0.32628506278034</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>659.2747460041395</v>
+        <v>2.443669946084889</v>
       </c>
       <c r="R3">
-        <v>659.2747460041395</v>
+        <v>21.993029514764</v>
       </c>
       <c r="S3">
-        <v>0.32628506278034</v>
+        <v>0.001159861452768533</v>
       </c>
       <c r="T3">
-        <v>0.32628506278034</v>
+        <v>0.001159861452768534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.6369697692994</v>
+        <v>23.98404066666667</v>
       </c>
       <c r="H4">
-        <v>37.6369697692994</v>
+        <v>71.952122</v>
       </c>
       <c r="I4">
-        <v>0.2431366995180239</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="J4">
-        <v>0.2431366995180239</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>491.2694576121073</v>
+        <v>1.508724072816889</v>
       </c>
       <c r="R4">
-        <v>491.2694576121073</v>
+        <v>13.578516655352</v>
       </c>
       <c r="S4">
-        <v>0.2431366995180239</v>
+        <v>0.0007160995279775261</v>
       </c>
       <c r="T4">
-        <v>0.2431366995180239</v>
+        <v>0.0007160995279775262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.7271762537379</v>
+        <v>23.98404066666667</v>
       </c>
       <c r="H5">
-        <v>31.7271762537379</v>
+        <v>71.952122</v>
       </c>
       <c r="I5">
-        <v>0.2049591390232703</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="J5">
-        <v>0.2049591390232703</v>
+        <v>0.1540130276837477</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.0528430057841</v>
+        <v>0.084843</v>
       </c>
       <c r="N5">
-        <v>13.0528430057841</v>
+        <v>0.254529</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.006271110847647699</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.0062711108476477</v>
       </c>
       <c r="Q5">
-        <v>414.1298506568821</v>
+        <v>2.034877962282</v>
       </c>
       <c r="R5">
-        <v>414.1298506568821</v>
+        <v>18.313901660538</v>
       </c>
       <c r="S5">
-        <v>0.2049591390232703</v>
+        <v>0.0009658327685866156</v>
       </c>
       <c r="T5">
-        <v>0.2049591390232703</v>
+        <v>0.0009658327685866157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,982 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9859691744547</v>
+        <v>50.51423633333334</v>
       </c>
       <c r="H6">
-        <v>10.9859691744547</v>
+        <v>151.542709</v>
       </c>
       <c r="I6">
-        <v>0.07096990811046869</v>
+        <v>0.3243761377390249</v>
       </c>
       <c r="J6">
-        <v>0.07096990811046869</v>
+        <v>0.3243761377390249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N6">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q6">
-        <v>143.3981309005408</v>
+        <v>670.8061418814502</v>
       </c>
       <c r="R6">
-        <v>143.3981309005408</v>
+        <v>6037.255276933051</v>
       </c>
       <c r="S6">
-        <v>0.07096990811046869</v>
+        <v>0.3183908643207768</v>
       </c>
       <c r="T6">
-        <v>0.07096990811046869</v>
+        <v>0.3183908643207768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>50.51423633333334</v>
+      </c>
+      <c r="H7">
+        <v>151.542709</v>
+      </c>
+      <c r="I7">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="J7">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>5.146760835373112</v>
+      </c>
+      <c r="R7">
+        <v>46.320847518358</v>
+      </c>
+      <c r="S7">
+        <v>0.00244285424434347</v>
+      </c>
+      <c r="T7">
+        <v>0.00244285424434347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>50.51423633333334</v>
+      </c>
+      <c r="H8">
+        <v>151.542709</v>
+      </c>
+      <c r="I8">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="J8">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>3.177614874627111</v>
+      </c>
+      <c r="R8">
+        <v>28.598533871644</v>
+      </c>
+      <c r="S8">
+        <v>0.001508220457811315</v>
+      </c>
+      <c r="T8">
+        <v>0.001508220457811315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>50.51423633333334</v>
+      </c>
+      <c r="H9">
+        <v>151.542709</v>
+      </c>
+      <c r="I9">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="J9">
+        <v>0.3243761377390249</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>4.285779353229</v>
+      </c>
+      <c r="R9">
+        <v>38.572014179061</v>
+      </c>
+      <c r="S9">
+        <v>0.002034198716093263</v>
+      </c>
+      <c r="T9">
+        <v>0.002034198716093263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>37.716957</v>
+      </c>
+      <c r="H10">
+        <v>113.150871</v>
+      </c>
+      <c r="I10">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="J10">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>500.8640780338411</v>
+      </c>
+      <c r="R10">
+        <v>4507.776702304569</v>
+      </c>
+      <c r="S10">
+        <v>0.2377297057315949</v>
+      </c>
+      <c r="T10">
+        <v>0.2377297057315949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>37.716957</v>
+      </c>
+      <c r="H11">
+        <v>113.150871</v>
+      </c>
+      <c r="I11">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="J11">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>3.842880170178</v>
+      </c>
+      <c r="R11">
+        <v>34.585921531602</v>
+      </c>
+      <c r="S11">
+        <v>0.001823981419478983</v>
+      </c>
+      <c r="T11">
+        <v>0.001823981419478983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>37.716957</v>
+      </c>
+      <c r="H12">
+        <v>113.150871</v>
+      </c>
+      <c r="I12">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="J12">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>2.372597752404</v>
+      </c>
+      <c r="R12">
+        <v>21.353379771636</v>
+      </c>
+      <c r="S12">
+        <v>0.001126127806395285</v>
+      </c>
+      <c r="T12">
+        <v>0.001126127806395285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>37.716957</v>
+      </c>
+      <c r="H13">
+        <v>113.150871</v>
+      </c>
+      <c r="I13">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="J13">
+        <v>0.2421986696620728</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>3.200019782751</v>
+      </c>
+      <c r="R13">
+        <v>28.800178044759</v>
+      </c>
+      <c r="S13">
+        <v>0.001518854704603667</v>
+      </c>
+      <c r="T13">
+        <v>0.001518854704603667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>31.83609466666667</v>
+      </c>
+      <c r="H14">
+        <v>95.508284</v>
+      </c>
+      <c r="I14">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="J14">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>422.7688941983862</v>
+      </c>
+      <c r="R14">
+        <v>3804.920047785476</v>
+      </c>
+      <c r="S14">
+        <v>0.2006626732042531</v>
+      </c>
+      <c r="T14">
+        <v>0.2006626732042531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>31.83609466666667</v>
+      </c>
+      <c r="H15">
+        <v>95.508284</v>
+      </c>
+      <c r="I15">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="J15">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>3.243694789334222</v>
+      </c>
+      <c r="R15">
+        <v>29.193253104008</v>
+      </c>
+      <c r="S15">
+        <v>0.001539584573081385</v>
+      </c>
+      <c r="T15">
+        <v>0.001539584573081385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>31.83609466666667</v>
+      </c>
+      <c r="H16">
+        <v>95.508284</v>
+      </c>
+      <c r="I16">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="J16">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>2.002660147038222</v>
+      </c>
+      <c r="R16">
+        <v>18.023941323344</v>
+      </c>
+      <c r="S16">
+        <v>0.0009505409317927205</v>
+      </c>
+      <c r="T16">
+        <v>0.0009505409317927206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.83609466666667</v>
+      </c>
+      <c r="H17">
+        <v>95.508284</v>
+      </c>
+      <c r="I17">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="J17">
+        <v>0.2044348322029924</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>2.701069779804</v>
+      </c>
+      <c r="R17">
+        <v>24.309628018236</v>
+      </c>
+      <c r="S17">
+        <v>0.001282033493865223</v>
+      </c>
+      <c r="T17">
+        <v>0.001282033493865223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.67602133333333</v>
+      </c>
+      <c r="H18">
+        <v>35.028064</v>
+      </c>
+      <c r="I18">
+        <v>0.0749773327121622</v>
+      </c>
+      <c r="J18">
+        <v>0.07497733271216221</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>155.0522662849884</v>
+      </c>
+      <c r="R18">
+        <v>1395.470396564896</v>
+      </c>
+      <c r="S18">
+        <v>0.0735938775678313</v>
+      </c>
+      <c r="T18">
+        <v>0.07359387756783131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.67602133333333</v>
+      </c>
+      <c r="H19">
+        <v>35.028064</v>
+      </c>
+      <c r="I19">
+        <v>0.0749773327121622</v>
+      </c>
+      <c r="J19">
+        <v>0.07497733271216221</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>1.189638677596444</v>
+      </c>
+      <c r="R19">
+        <v>10.706748098368</v>
+      </c>
+      <c r="S19">
+        <v>0.0005646491037291321</v>
+      </c>
+      <c r="T19">
+        <v>0.0005646491037291322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.67602133333333</v>
+      </c>
+      <c r="H20">
+        <v>35.028064</v>
+      </c>
+      <c r="I20">
+        <v>0.0749773327121622</v>
+      </c>
+      <c r="J20">
+        <v>0.07497733271216221</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>0.7344840139804444</v>
+      </c>
+      <c r="R20">
+        <v>6.610356125824</v>
+      </c>
+      <c r="S20">
+        <v>0.0003486148761028419</v>
+      </c>
+      <c r="T20">
+        <v>0.0003486148761028421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.67602133333333</v>
+      </c>
+      <c r="H21">
+        <v>35.028064</v>
+      </c>
+      <c r="I21">
+        <v>0.0749773327121622</v>
+      </c>
+      <c r="J21">
+        <v>0.07497733271216221</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>0.990628677984</v>
+      </c>
+      <c r="R21">
+        <v>8.915658101856</v>
+      </c>
+      <c r="S21">
+        <v>0.000470191164498931</v>
+      </c>
+      <c r="T21">
+        <v>0.0004701911644989312</v>
       </c>
     </row>
   </sheetData>
